--- a/Excel Dashboards in 2023.xlsx
+++ b/Excel Dashboards in 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A246AF-D3FE-4700-ADE5-03ABFD00E6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C54CCC9-8E8C-4CEE-BAB5-A746BB351144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OVERVIEW" sheetId="2" r:id="rId1"/>
@@ -406,13 +406,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -422,6 +415,13 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1483,6 +1483,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DF69-4534-B231-C436537210E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1499,6 +1504,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DF69-4534-B231-C436537210E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1515,6 +1525,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DF69-4534-B231-C436537210E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1531,6 +1546,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DF69-4534-B231-C436537210E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1547,6 +1567,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DF69-4534-B231-C436537210E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1563,6 +1588,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-DF69-4534-B231-C436537210E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1581,6 +1611,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-DF69-4534-B231-C436537210E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1599,6 +1634,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-DF69-4534-B231-C436537210E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1617,6 +1657,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-DF69-4534-B231-C436537210E3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6780,6 +6825,7 @@
               <a:latin typeface="+mj-lt"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>$7,54,941 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="2400" b="1">
@@ -6863,6 +6909,7 @@
               <a:latin typeface="+mj-lt"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>$8,91,111 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="2400" b="1">
@@ -6946,6 +6993,7 @@
               <a:latin typeface="+mj-lt"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
+            <a:pPr/>
             <a:t> 9,360 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="2400" b="1">
@@ -7257,25 +7305,8 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>D-Mart</a:t>
+            <a:t>Dashboard Report</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="5400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 2023 Year Report</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="5400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7303,7 +7334,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12FBE732-0D1C-4403-9C01-9A81E4948C5B}" name="Table2" displayName="Table2" ref="A2:B5" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12FBE732-0D1C-4403-9C01-9A81E4948C5B}" name="Table2" displayName="Table2" ref="A2:B5" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A2:B5" xr:uid="{12FBE732-0D1C-4403-9C01-9A81E4948C5B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BFD79BDE-6A3A-44B6-9513-4E5C8F52F865}" name="Values" dataDxfId="1"/>
@@ -7516,7 +7547,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="102" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -9614,7 +9645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
